--- a/uJOVE-BOM.xlsx
+++ b/uJOVE-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Documents/eagle/projects/uJOVE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2E035E-D3AA-F94F-A2B1-F5CF6C5BB512}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A86C0C-B6F3-C445-856F-432D3FF482E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{BFBF2DF8-84F4-1440-8671-A671A9B402A7}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="221">
   <si>
     <t>Qty</t>
   </si>
@@ -754,6 +754,9 @@
   </si>
   <si>
     <t>C0603C220J5G7411</t>
+  </si>
+  <si>
+    <t>RC0603FR-0747KL</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1158,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1702,7 +1705,7 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>

--- a/uJOVE-BOM.xlsx
+++ b/uJOVE-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Downloads/uJOVE-master/Boards_v1-1.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4518C7-40F0-154C-B64B-EBC8818CEA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DAA507-E17F-D34B-8603-8C3FA5A72B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{BFBF2DF8-84F4-1440-8671-A671A9B402A7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{BFBF2DF8-84F4-1440-8671-A671A9B402A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>C0603</t>
   </si>
   <si>
-    <t>C28, C29</t>
-  </si>
-  <si>
     <t>CAPACITOR, American symbol</t>
   </si>
   <si>
@@ -774,6 +771,9 @@
   </si>
   <si>
     <t>https://www.thonk.co.uk/shop/erica-knobs-6-35mm-shaft/</t>
+  </si>
+  <si>
+    <t>C19, C18</t>
   </si>
 </sst>
 </file>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7D2576-D4CA-924D-A2B1-3041CE9061F5}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1229,12 +1229,12 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="21">
       <c r="B1" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="20" thickBot="1">
       <c r="B2" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickTop="1">
@@ -1270,10 +1270,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1282,10 +1282,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1293,10 +1293,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1305,10 +1305,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1316,10 +1316,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1328,10 +1328,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1339,10 +1339,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1351,10 +1351,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1362,10 +1362,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1374,10 +1374,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1397,10 +1397,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1408,22 +1408,22 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
         <v>197</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1431,22 +1431,22 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1">
@@ -1454,27 +1454,27 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickTop="1">
@@ -1482,22 +1482,22 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>330</v>
       </c>
       <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1505,22 +1505,22 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16">
         <v>560</v>
       </c>
       <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1528,22 +1528,22 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17">
         <v>820</v>
       </c>
       <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1551,22 +1551,22 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1574,22 +1574,22 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1597,22 +1597,22 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1620,22 +1620,22 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1643,22 +1643,22 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1666,22 +1666,22 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1689,22 +1689,22 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1712,22 +1712,22 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1735,22 +1735,22 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1758,22 +1758,22 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1781,22 +1781,22 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1804,22 +1804,22 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1827,22 +1827,22 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1850,22 +1850,22 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
       <c r="F31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1873,22 +1873,22 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1896,22 +1896,22 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1919,22 +1919,22 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
         <v>12</v>
       </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1942,22 +1942,22 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1965,22 +1965,22 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
       <c r="F36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1988,22 +1988,22 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G37" t="s">
         <v>14</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2011,22 +2011,22 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2034,37 +2034,37 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
         <v>32</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>33</v>
       </c>
-      <c r="E39" t="s">
-        <v>34</v>
-      </c>
       <c r="F39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17" thickBot="1">
       <c r="B41" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B42" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17" thickTop="1">
@@ -2072,22 +2072,22 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" t="s">
         <v>115</v>
-      </c>
-      <c r="C43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" t="s">
-        <v>206</v>
-      </c>
-      <c r="E43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" t="s">
-        <v>166</v>
-      </c>
-      <c r="G43" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2095,22 +2095,22 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" t="s">
         <v>51</v>
-      </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" t="s">
-        <v>167</v>
-      </c>
-      <c r="G44" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2118,19 +2118,19 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
         <v>45</v>
       </c>
-      <c r="E45" t="s">
-        <v>46</v>
-      </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G45">
         <v>304010013</v>
@@ -2141,22 +2141,22 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" t="s">
         <v>87</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" t="s">
-        <v>86</v>
-      </c>
-      <c r="F46" t="s">
-        <v>178</v>
-      </c>
-      <c r="G46" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17" thickBot="1">
@@ -2164,27 +2164,27 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" t="s">
         <v>104</v>
       </c>
-      <c r="D47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" t="s">
-        <v>105</v>
-      </c>
       <c r="F47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" t="s">
         <v>170</v>
-      </c>
-      <c r="G47" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B48" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17" thickTop="1">
@@ -2192,22 +2192,22 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" t="s">
         <v>71</v>
-      </c>
-      <c r="C49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2215,22 +2215,22 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" t="s">
         <v>94</v>
-      </c>
-      <c r="C50" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>92</v>
-      </c>
-      <c r="G50" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2238,19 +2238,19 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
         <v>121</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>122</v>
       </c>
-      <c r="E51" t="s">
-        <v>123</v>
-      </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2258,22 +2258,22 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" t="s">
         <v>117</v>
       </c>
-      <c r="D52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" t="s">
-        <v>118</v>
-      </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2281,22 +2281,22 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" t="s">
         <v>119</v>
-      </c>
-      <c r="C53" t="s">
-        <v>222</v>
-      </c>
-      <c r="D53" t="s">
-        <v>221</v>
-      </c>
-      <c r="E53" t="s">
-        <v>223</v>
-      </c>
-      <c r="F53" t="s">
-        <v>224</v>
-      </c>
-      <c r="G53" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2304,22 +2304,22 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" t="s">
         <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" t="s">
-        <v>176</v>
-      </c>
-      <c r="E54" t="s">
-        <v>99</v>
-      </c>
-      <c r="F54" t="s">
-        <v>174</v>
-      </c>
-      <c r="G54" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2327,22 +2327,22 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
         <v>108</v>
       </c>
-      <c r="D55" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>177</v>
-      </c>
-      <c r="G55" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" thickBot="1">
@@ -2350,24 +2350,24 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" t="s">
         <v>89</v>
       </c>
-      <c r="D56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E56" t="s">
-        <v>90</v>
-      </c>
       <c r="F56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B57" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" thickTop="1">
@@ -2375,22 +2375,22 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
         <v>27</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2398,22 +2398,22 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2421,22 +2421,22 @@
         <v>1</v>
       </c>
       <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G60" t="s">
         <v>97</v>
-      </c>
-      <c r="C60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" t="s">
-        <v>96</v>
-      </c>
-      <c r="F60" t="s">
-        <v>182</v>
-      </c>
-      <c r="G60" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2444,19 +2444,19 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
         <v>129</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>130</v>
       </c>
-      <c r="E61" t="s">
-        <v>131</v>
-      </c>
       <c r="F61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2464,16 +2464,16 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="s">
         <v>132</v>
       </c>
-      <c r="C62" t="s">
-        <v>133</v>
-      </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2481,16 +2481,16 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" t="s">
         <v>186</v>
-      </c>
-      <c r="F63" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2498,41 +2498,41 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
         <v>127</v>
       </c>
-      <c r="D64" t="s">
-        <v>128</v>
-      </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
         <v>191</v>
       </c>
-      <c r="C66" t="s">
+      <c r="F66" t="s">
         <v>192</v>
-      </c>
-      <c r="F66" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/uJOVE-BOM.xlsx
+++ b/uJOVE-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DAA507-E17F-D34B-8603-8C3FA5A72B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26731215-6870-9B42-9447-CA4FC7FA57C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{BFBF2DF8-84F4-1440-8671-A671A9B402A7}"/>
   </bookViews>
@@ -346,9 +346,6 @@
     <t>TSSOP16</t>
   </si>
   <si>
-    <t>IC6</t>
-  </si>
-  <si>
     <t>ANALOG MULTIPLEXER</t>
   </si>
   <si>
@@ -774,6 +771,9 @@
   </si>
   <si>
     <t>C19, C18</t>
+  </si>
+  <si>
+    <t>IC8</t>
   </si>
 </sst>
 </file>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7D2576-D4CA-924D-A2B1-3041CE9061F5}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1229,12 +1229,12 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="21">
       <c r="B1" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="20" thickBot="1">
       <c r="B2" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickTop="1">
@@ -1270,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -1282,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1293,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -1316,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -1339,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
@@ -1351,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -1362,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1374,7 +1374,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1397,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" t="s">
         <v>38</v>
@@ -1431,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -1443,7 +1443,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
@@ -1466,15 +1466,15 @@
         <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickTop="1">
@@ -1494,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -1505,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16">
         <v>560</v>
@@ -1517,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -1563,7 +1563,7 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1586,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -1609,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -1632,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -1655,7 +1655,7 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
@@ -1689,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -1701,7 +1701,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -1712,7 +1712,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
@@ -1724,7 +1724,7 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -1735,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
         <v>64</v>
@@ -1747,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1770,7 +1770,7 @@
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
@@ -1793,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -1804,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
         <v>80</v>
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -1827,7 +1827,7 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -1839,7 +1839,7 @@
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
@@ -1862,7 +1862,7 @@
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
@@ -1885,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
@@ -1908,7 +1908,7 @@
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -1931,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -1954,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
@@ -1977,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -2000,7 +2000,7 @@
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
@@ -2023,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
@@ -2046,7 +2046,7 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
@@ -2054,17 +2054,17 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17" thickBot="1">
       <c r="B41" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B42" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17" thickTop="1">
@@ -2072,22 +2072,22 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" t="s">
         <v>114</v>
-      </c>
-      <c r="C43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" t="s">
-        <v>205</v>
-      </c>
-      <c r="E43" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" t="s">
-        <v>165</v>
-      </c>
-      <c r="G43" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2107,7 +2107,7 @@
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G44" t="s">
         <v>51</v>
@@ -2121,7 +2121,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
@@ -2130,7 +2130,7 @@
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G45">
         <v>304010013</v>
@@ -2153,7 +2153,7 @@
         <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G46" t="s">
         <v>87</v>
@@ -2164,27 +2164,27 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
         <v>103</v>
       </c>
-      <c r="D47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" t="s">
-        <v>104</v>
-      </c>
       <c r="F47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" t="s">
         <v>169</v>
-      </c>
-      <c r="G47" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B48" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17" thickTop="1">
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -2204,7 +2204,7 @@
         <v>69</v>
       </c>
       <c r="F49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G49" t="s">
         <v>71</v>
@@ -2238,19 +2238,19 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" t="s">
         <v>120</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>121</v>
       </c>
-      <c r="E51" t="s">
-        <v>122</v>
-      </c>
       <c r="F51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2258,22 +2258,22 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" t="s">
         <v>116</v>
       </c>
-      <c r="D52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" t="s">
-        <v>117</v>
-      </c>
       <c r="F52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2281,22 +2281,22 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" t="s">
+        <v>222</v>
+      </c>
+      <c r="G53" t="s">
         <v>118</v>
-      </c>
-      <c r="C53" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" t="s">
-        <v>220</v>
-      </c>
-      <c r="E53" t="s">
-        <v>222</v>
-      </c>
-      <c r="F53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G53" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2304,22 +2304,22 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" t="s">
         <v>174</v>
-      </c>
-      <c r="D54" t="s">
-        <v>175</v>
       </c>
       <c r="E54" t="s">
         <v>98</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2327,22 +2327,22 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" t="s">
         <v>107</v>
       </c>
-      <c r="D55" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>175</v>
+      </c>
+      <c r="G55" t="s">
         <v>108</v>
-      </c>
-      <c r="F55" t="s">
-        <v>176</v>
-      </c>
-      <c r="G55" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" thickBot="1">
@@ -2362,12 +2362,12 @@
         <v>89</v>
       </c>
       <c r="F56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B57" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" thickTop="1">
@@ -2398,22 +2398,22 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2433,7 +2433,7 @@
         <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G60" t="s">
         <v>97</v>
@@ -2444,19 +2444,19 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" t="s">
         <v>128</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>129</v>
       </c>
-      <c r="E61" t="s">
-        <v>130</v>
-      </c>
       <c r="F61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2464,16 +2464,16 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
         <v>131</v>
       </c>
-      <c r="C62" t="s">
-        <v>132</v>
-      </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2484,13 +2484,13 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" t="s">
         <v>185</v>
-      </c>
-      <c r="F63" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2498,41 +2498,41 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" t="s">
         <v>126</v>
       </c>
-      <c r="D64" t="s">
-        <v>127</v>
-      </c>
       <c r="E64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
+        <v>225</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" t="s">
         <v>190</v>
       </c>
-      <c r="C66" t="s">
+      <c r="F66" t="s">
         <v>191</v>
-      </c>
-      <c r="F66" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/uJOVE-BOM.xlsx
+++ b/uJOVE-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayshez/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26731215-6870-9B42-9447-CA4FC7FA57C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C044EEF4-B30D-3C44-A7E6-8E2DCAD359E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{BFBF2DF8-84F4-1440-8671-A671A9B402A7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{BFBF2DF8-84F4-1440-8671-A671A9B402A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,9 +340,6 @@
     <t>SW1</t>
   </si>
   <si>
-    <t>C&amp;K D6R</t>
-  </si>
-  <si>
     <t>TSSOP16</t>
   </si>
   <si>
@@ -587,9 +584,6 @@
   </si>
   <si>
     <t>COMON CATHODE</t>
-  </si>
-  <si>
-    <t>KS-01Q-01</t>
   </si>
   <si>
     <t>https://www.thonk.co.uk/shop/thonkiconn/</t>
@@ -774,6 +768,12 @@
   </si>
   <si>
     <t>IC8</t>
+  </si>
+  <si>
+    <t>C&amp;K D6R (for other colors: White =  D6R00F1LFS, Gray = D6R10F1LFS, Yellow = D6R30F1LFS, Red = D6R40F1LFS,  Green = D6R50F1LFS, Blue = D6R60F1LFS)</t>
+  </si>
+  <si>
+    <t>611-D6R90LFS (black) or Thonk: https://www.thonk.co.uk/shop/radio-music-switch/</t>
   </si>
 </sst>
 </file>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7D2576-D4CA-924D-A2B1-3041CE9061F5}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1223,18 +1223,18 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="21">
       <c r="B1" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="20" thickBot="1">
       <c r="B2" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickTop="1">
@@ -1270,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
@@ -1282,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1293,7 +1293,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -1305,7 +1305,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -1316,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -1339,7 +1339,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
@@ -1351,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -1362,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1374,7 +1374,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1397,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G11" t="s">
         <v>38</v>
@@ -1431,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -1443,7 +1443,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
@@ -1466,15 +1466,15 @@
         <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B14" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickTop="1">
@@ -1494,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -1505,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C16">
         <v>560</v>
@@ -1517,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -1563,7 +1563,7 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1586,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -1609,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -1620,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -1632,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -1655,7 +1655,7 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
@@ -1689,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -1701,7 +1701,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -1712,7 +1712,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
@@ -1724,7 +1724,7 @@
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -1735,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
         <v>64</v>
@@ -1747,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1770,7 +1770,7 @@
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
@@ -1793,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -1804,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
         <v>80</v>
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -1827,7 +1827,7 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -1839,7 +1839,7 @@
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
@@ -1862,7 +1862,7 @@
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
@@ -1885,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
@@ -1908,7 +1908,7 @@
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -1931,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -1954,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
@@ -1977,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -2000,7 +2000,7 @@
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
@@ -2023,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
@@ -2046,7 +2046,7 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
@@ -2054,17 +2054,17 @@
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17" thickBot="1">
       <c r="B41" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B42" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17" thickTop="1">
@@ -2072,22 +2072,22 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" t="s">
         <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2107,7 +2107,7 @@
         <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G44" t="s">
         <v>51</v>
@@ -2121,7 +2121,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
@@ -2130,7 +2130,7 @@
         <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G45">
         <v>304010013</v>
@@ -2153,7 +2153,7 @@
         <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G46" t="s">
         <v>87</v>
@@ -2164,27 +2164,27 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
         <v>102</v>
       </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" t="s">
-        <v>103</v>
-      </c>
       <c r="F47" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" t="s">
         <v>168</v>
-      </c>
-      <c r="G47" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B48" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17" thickTop="1">
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -2204,7 +2204,7 @@
         <v>69</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G49" t="s">
         <v>71</v>
@@ -2238,19 +2238,19 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" t="s">
         <v>119</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>120</v>
       </c>
-      <c r="E51" t="s">
-        <v>121</v>
-      </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2258,22 +2258,22 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" t="s">
         <v>115</v>
       </c>
-      <c r="D52" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" t="s">
-        <v>116</v>
-      </c>
       <c r="F52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2281,22 +2281,22 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53" t="s">
+        <v>220</v>
+      </c>
+      <c r="G53" t="s">
         <v>117</v>
-      </c>
-      <c r="C53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" t="s">
-        <v>221</v>
-      </c>
-      <c r="F53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G53" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2307,19 +2307,19 @@
         <v>70</v>
       </c>
       <c r="C54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" t="s">
         <v>173</v>
       </c>
-      <c r="D54" t="s">
-        <v>174</v>
-      </c>
       <c r="E54" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" t="s">
         <v>98</v>
-      </c>
-      <c r="F54" t="s">
-        <v>172</v>
-      </c>
-      <c r="G54" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2327,22 +2327,22 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" t="s">
         <v>106</v>
       </c>
-      <c r="D55" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>175</v>
-      </c>
-      <c r="G55" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" thickBot="1">
@@ -2362,12 +2362,12 @@
         <v>89</v>
       </c>
       <c r="F56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B57" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" thickTop="1">
@@ -2398,22 +2398,22 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2433,10 +2433,10 @@
         <v>95</v>
       </c>
       <c r="F60" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="G60" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2444,19 +2444,19 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" t="s">
         <v>127</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>128</v>
       </c>
-      <c r="E61" t="s">
-        <v>129</v>
-      </c>
       <c r="F61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2464,16 +2464,16 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
         <v>130</v>
       </c>
-      <c r="C62" t="s">
-        <v>131</v>
-      </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2484,13 +2484,13 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2498,41 +2498,41 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" t="s">
         <v>125</v>
       </c>
-      <c r="D64" t="s">
-        <v>126</v>
-      </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="F66" t="s">
         <v>189</v>
-      </c>
-      <c r="C66" t="s">
-        <v>190</v>
-      </c>
-      <c r="F66" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
